--- a/DoseMe_Product_Catalog_with_SKUs_and_Prices_DM.xlsx
+++ b/DoseMe_Product_Catalog_with_SKUs_and_Prices_DM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smita Patted\Desktop\QR App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smita Patted\Desktop\QR App\dose_me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60654547-DDB2-4EDF-ADA9-A16DFDE2DB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC878317-548A-4225-AF82-295ABDC62EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD656997-B424-45C6-A5B5-EAA34D9BD060}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>DM0006</t>
   </si>
   <si>
-    <t>Cough lozenges (e.g., Wick, Dobendan)</t>
-  </si>
-  <si>
     <t>DM0007</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>Baby Care</t>
   </si>
   <si>
-    <t>Baby formula powder packs (e.g., Aptamil or Hipp)</t>
-  </si>
-  <si>
     <t>DM0013</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Electrolyte &amp; Hydration</t>
   </si>
   <si>
-    <t>Electrolyte sachets (e.g., Elotrans)</t>
-  </si>
-  <si>
     <t>DM0016</t>
   </si>
   <si>
@@ -184,9 +175,6 @@
     <t>DM0021</t>
   </si>
   <si>
-    <t>Healthy snacks (e.g., nut mixes)</t>
-  </si>
-  <si>
     <t>DM0022</t>
   </si>
   <si>
@@ -242,6 +230,18 @@
   </si>
   <si>
     <t xml:space="preserve">Düsseldorf International Airport </t>
+  </si>
+  <si>
+    <t>Electrolyte</t>
+  </si>
+  <si>
+    <t>Baby formula powder packs</t>
+  </si>
+  <si>
+    <t>Cough lozenges</t>
+  </si>
+  <si>
+    <t>Healthy snacks</t>
   </si>
 </sst>
 </file>
@@ -1111,14 +1111,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFC2E56-B058-45F9-8F7E-F1452A917963}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L107" sqref="L107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" customWidth="1"/>
     <col min="3" max="3" width="42.44140625" customWidth="1"/>
     <col min="4" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.109375" customWidth="1"/>
@@ -1138,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1152,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1172,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1192,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1212,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1232,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1252,7 +1252,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1269,13 +1269,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
       <c r="E8">
         <v>18</v>
@@ -1289,13 +1289,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -1306,16 +1306,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
       </c>
       <c r="E10">
         <v>28</v>
@@ -1326,16 +1326,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1346,16 +1346,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
       </c>
       <c r="E12">
         <v>12</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -1386,16 +1386,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1406,16 +1406,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1426,16 +1426,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -1446,16 +1446,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -1466,16 +1466,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>15</v>
@@ -1486,16 +1486,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>12</v>
@@ -1506,16 +1506,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -1526,16 +1526,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -1546,16 +1546,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -1566,16 +1566,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -1586,16 +1586,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>12</v>
@@ -1606,16 +1606,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -1626,16 +1626,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -1646,16 +1646,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -1666,16 +1666,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <v>11</v>
@@ -1686,16 +1686,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -1712,7 +1712,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1732,7 +1732,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1752,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1772,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -1792,7 +1792,7 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -1812,7 +1812,7 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -1829,13 +1829,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
         <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
       </c>
       <c r="E36">
         <v>19</v>
@@ -1849,13 +1849,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
         <v>21</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>22</v>
       </c>
       <c r="E37">
         <v>12</v>
@@ -1866,16 +1866,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
         <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" t="s">
-        <v>25</v>
       </c>
       <c r="E38">
         <v>24</v>
@@ -1886,16 +1886,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
         <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -1906,16 +1906,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
         <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" t="s">
-        <v>29</v>
       </c>
       <c r="E40">
         <v>11</v>
@@ -1926,16 +1926,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
         <v>30</v>
-      </c>
-      <c r="C41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" t="s">
-        <v>31</v>
       </c>
       <c r="E41">
         <v>15</v>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
         <v>32</v>
-      </c>
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" t="s">
-        <v>34</v>
       </c>
       <c r="E42">
         <v>12</v>
@@ -1966,16 +1966,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E43">
         <v>9</v>
@@ -1986,16 +1986,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E44">
         <v>8</v>
@@ -2006,16 +2006,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E45">
         <v>14</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
         <v>39</v>
       </c>
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E46">
         <v>12</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E47">
         <v>11</v>
@@ -2066,16 +2066,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E48">
         <v>9</v>
@@ -2086,16 +2086,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E49">
         <v>15</v>
@@ -2106,16 +2106,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E50">
         <v>14</v>
@@ -2126,16 +2126,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -2146,16 +2146,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E52">
         <v>11</v>
@@ -2166,16 +2166,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" t="s">
         <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" t="s">
-        <v>59</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -2186,16 +2186,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E54">
         <v>14</v>
@@ -2206,16 +2206,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E55">
         <v>16</v>
@@ -2226,16 +2226,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E56">
         <v>11</v>
@@ -2246,16 +2246,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
         <v>66</v>
       </c>
-      <c r="C57" t="s">
-        <v>70</v>
-      </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E57">
         <v>9</v>
@@ -2272,7 +2272,7 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -2292,7 +2292,7 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -2312,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -2332,7 +2332,7 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -2352,7 +2352,7 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
@@ -2372,7 +2372,7 @@
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -2389,13 +2389,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
         <v>19</v>
-      </c>
-      <c r="C64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" t="s">
-        <v>20</v>
       </c>
       <c r="E64">
         <v>15</v>
@@ -2409,13 +2409,13 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
         <v>21</v>
-      </c>
-      <c r="C65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" t="s">
-        <v>22</v>
       </c>
       <c r="E65">
         <v>13</v>
@@ -2426,16 +2426,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
         <v>23</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" t="s">
         <v>24</v>
-      </c>
-      <c r="C66" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" t="s">
-        <v>25</v>
       </c>
       <c r="E66">
         <v>21</v>
@@ -2446,16 +2446,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
         <v>26</v>
-      </c>
-      <c r="C67" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" t="s">
-        <v>27</v>
       </c>
       <c r="E67">
         <v>15</v>
@@ -2466,16 +2466,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
         <v>28</v>
-      </c>
-      <c r="C68" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" t="s">
-        <v>29</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -2486,16 +2486,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
         <v>30</v>
-      </c>
-      <c r="C69" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" t="s">
-        <v>31</v>
       </c>
       <c r="E69">
         <v>8</v>
@@ -2506,16 +2506,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" t="s">
         <v>32</v>
-      </c>
-      <c r="B70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" t="s">
-        <v>34</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -2526,16 +2526,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E71">
         <v>11</v>
@@ -2546,16 +2546,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E72">
         <v>12</v>
@@ -2566,16 +2566,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E73">
         <v>15</v>
@@ -2586,16 +2586,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s">
         <v>39</v>
       </c>
-      <c r="B74" t="s">
-        <v>42</v>
-      </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E74">
         <v>12</v>
@@ -2606,16 +2606,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E75">
         <v>11</v>
@@ -2626,16 +2626,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E76">
         <v>9</v>
@@ -2646,16 +2646,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E77">
         <v>8</v>
@@ -2666,16 +2666,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" t="s">
         <v>48</v>
       </c>
-      <c r="B78" t="s">
-        <v>51</v>
-      </c>
       <c r="C78" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -2686,16 +2686,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D79" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E79">
         <v>6</v>
@@ -2706,16 +2706,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D80" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E80">
         <v>13</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" t="s">
         <v>55</v>
-      </c>
-      <c r="B81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" t="s">
-        <v>71</v>
-      </c>
-      <c r="D81" t="s">
-        <v>59</v>
       </c>
       <c r="E81">
         <v>12</v>
@@ -2746,16 +2746,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E82">
         <v>12</v>
@@ -2766,16 +2766,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E83">
         <v>9</v>
@@ -2786,16 +2786,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D84" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E84">
         <v>7</v>
@@ -2806,16 +2806,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E85">
         <v>8</v>
@@ -2832,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -2852,7 +2852,7 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -2872,7 +2872,7 @@
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
@@ -2892,7 +2892,7 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -2912,7 +2912,7 @@
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D90" t="s">
         <v>16</v>
@@ -2932,7 +2932,7 @@
         <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -2949,13 +2949,13 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
         <v>19</v>
-      </c>
-      <c r="C92" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92" t="s">
-        <v>20</v>
       </c>
       <c r="E92">
         <v>15</v>
@@ -2969,13 +2969,13 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
         <v>21</v>
-      </c>
-      <c r="C93" t="s">
-        <v>72</v>
-      </c>
-      <c r="D93" t="s">
-        <v>22</v>
       </c>
       <c r="E93">
         <v>13</v>
@@ -2986,16 +2986,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" t="s">
         <v>23</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
         <v>24</v>
-      </c>
-      <c r="C94" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94" t="s">
-        <v>25</v>
       </c>
       <c r="E94">
         <v>24</v>
@@ -3006,16 +3006,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
         <v>26</v>
-      </c>
-      <c r="C95" t="s">
-        <v>72</v>
-      </c>
-      <c r="D95" t="s">
-        <v>27</v>
       </c>
       <c r="E95">
         <v>7</v>
@@ -3026,16 +3026,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
         <v>28</v>
-      </c>
-      <c r="C96" t="s">
-        <v>72</v>
-      </c>
-      <c r="D96" t="s">
-        <v>29</v>
       </c>
       <c r="E96">
         <v>13</v>
@@ -3046,16 +3046,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
         <v>30</v>
-      </c>
-      <c r="C97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D97" t="s">
-        <v>31</v>
       </c>
       <c r="E97">
         <v>19</v>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
         <v>32</v>
-      </c>
-      <c r="B98" t="s">
-        <v>33</v>
-      </c>
-      <c r="C98" t="s">
-        <v>72</v>
-      </c>
-      <c r="D98" t="s">
-        <v>34</v>
       </c>
       <c r="E98">
         <v>14</v>
@@ -3086,16 +3086,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E99">
         <v>9</v>
@@ -3106,16 +3106,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E100">
         <v>14</v>
@@ -3126,16 +3126,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C101" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E101">
         <v>18</v>
@@ -3146,16 +3146,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" t="s">
         <v>39</v>
       </c>
-      <c r="B102" t="s">
-        <v>42</v>
-      </c>
       <c r="C102" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D102" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E102">
         <v>14</v>
@@ -3166,16 +3166,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E103">
         <v>11</v>
@@ -3186,16 +3186,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D104" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E104">
         <v>8</v>
@@ -3206,16 +3206,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C105" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D105" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E105">
         <v>7</v>
@@ -3226,16 +3226,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" t="s">
         <v>48</v>
       </c>
-      <c r="B106" t="s">
-        <v>51</v>
-      </c>
       <c r="C106" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D106" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E106">
         <v>7</v>
@@ -3246,16 +3246,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C107" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D107" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E107">
         <v>3</v>
@@ -3266,16 +3266,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B108" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C108" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D108" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3286,16 +3286,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
         <v>55</v>
-      </c>
-      <c r="B109" t="s">
-        <v>58</v>
-      </c>
-      <c r="C109" t="s">
-        <v>72</v>
-      </c>
-      <c r="D109" t="s">
-        <v>59</v>
       </c>
       <c r="E109">
         <v>11</v>
@@ -3306,16 +3306,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D110" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E110">
         <v>6</v>
@@ -3326,16 +3326,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C111" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D111" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E111">
         <v>11</v>
@@ -3346,16 +3346,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B112" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C112" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D112" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E112">
         <v>12</v>
@@ -3366,16 +3366,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C113" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D113" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E113">
         <v>8</v>
